--- a/target/classes/config/dataFile.xlsx
+++ b/target/classes/config/dataFile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="13320" windowHeight="4320" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13320" windowHeight="4320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,10 +39,10 @@
     <t>toCity</t>
   </si>
   <si>
-    <t>Bangalore</t>
-  </si>
-  <si>
-    <t>Delhi</t>
+    <t>Bangalore-BLR</t>
+  </si>
+  <si>
+    <t>Delhi-DEL</t>
   </si>
 </sst>
 </file>
@@ -387,8 +387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" activeCellId="1" sqref="A2 A10:B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -445,7 +445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
